--- a/Sprint 1 BD/Modelagens/SP_Medical_Group-Fisico.xlsx
+++ b/Sprint 1 BD/Modelagens/SP_Medical_Group-Fisico.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -366,34 +366,19 @@
     <t>descricao</t>
   </si>
   <si>
-    <t>14/04/2021</t>
-  </si>
-  <si>
     <t>Criança com catarro na garganta</t>
   </si>
   <si>
-    <t>28/03/2021</t>
-  </si>
-  <si>
     <t>Paciente com falta de confiança em si mesmo</t>
   </si>
   <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
     <t>Paciente com depressão severa</t>
   </si>
   <si>
     <t>Paciente com boderline</t>
   </si>
   <si>
-    <t>21/05/2021</t>
-  </si>
-  <si>
     <t>Paciente verificando se tem alergia a anestesia utilizada na cirurgia</t>
-  </si>
-  <si>
-    <t>30/03/2021</t>
   </si>
   <si>
     <t>Criança com dor de bronquilote</t>
@@ -412,9 +397,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -574,26 +560,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,9 +589,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,36 +597,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -957,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,17 +962,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="27"/>
+      <c r="E1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -994,19 +981,19 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1017,19 +1004,19 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1050,809 +1037,810 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="28"/>
+      <c r="E8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-      <c r="F11" s="12">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="12">
-        <v>3</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>5</v>
       </c>
-      <c r="F14" s="12">
-        <v>3</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>6</v>
       </c>
-      <c r="F15" s="12">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>7</v>
       </c>
-      <c r="F16" s="12">
-        <v>3</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>8</v>
       </c>
-      <c r="F17" s="12">
-        <v>3</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="9">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>9</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>9</v>
       </c>
-      <c r="F18" s="12">
-        <v>3</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="9">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>10</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>10</v>
       </c>
-      <c r="F19" s="12">
-        <v>3</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>11</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>1</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>12</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>13</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>14</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>15</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>16</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>17</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="13">
         <v>1</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="13">
         <v>1</v>
       </c>
-      <c r="C32" s="17">
-        <v>2</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
+      <c r="D32" s="13">
         <v>1</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>2</v>
-      </c>
-      <c r="B33" s="17">
-        <v>2</v>
-      </c>
-      <c r="C33" s="17">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>2</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2</v>
+      </c>
+      <c r="C33" s="13">
         <v>17</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>3</v>
-      </c>
-      <c r="B34" s="17">
-        <v>3</v>
-      </c>
-      <c r="C34" s="17">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>3</v>
+      </c>
+      <c r="B34" s="13">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13">
         <v>16</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="13">
         <v>1</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
         <v>1</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="22">
         <v>4</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="23">
         <v>30592</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="22">
         <v>94839859000</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>2</v>
-      </c>
-      <c r="B41" s="28">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>2</v>
+      </c>
+      <c r="B41" s="22">
         <v>5</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="23">
         <v>37075</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="22">
         <v>73556944057</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
-        <v>3</v>
-      </c>
-      <c r="B42" s="28">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>3</v>
+      </c>
+      <c r="B42" s="22">
         <v>6</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="23">
         <v>28773</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="22">
         <v>16839338002</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="22">
         <v>7</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="23">
         <v>31333</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="22">
         <v>14332654765</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H43" s="22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
         <v>5</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="22">
         <v>8</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="23">
         <v>27633</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="22">
         <v>91305348010</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
         <v>6</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="22">
         <v>9</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="23">
         <v>26379</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="22">
         <v>79799299004</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
         <v>7</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="22">
         <v>10</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="23">
         <v>43164</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="22">
         <v>13771913039</v>
       </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28" t="s">
+      <c r="G46" s="22"/>
+      <c r="H46" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="D49" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="A49" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="D49" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
+      <c r="A51" s="21">
         <v>1</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="18">
         <v>1</v>
       </c>
-      <c r="E51" s="24">
-        <v>3</v>
-      </c>
-      <c r="F51" s="24">
+      <c r="E51" s="18">
+        <v>3</v>
+      </c>
+      <c r="F51" s="18">
         <v>7</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="18">
         <v>1</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="19">
+        <v>44453</v>
+      </c>
+      <c r="I51" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="24" t="s">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>2</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2</v>
+      </c>
+      <c r="E52" s="18">
+        <v>2</v>
+      </c>
+      <c r="F52" s="18">
+        <v>2</v>
+      </c>
+      <c r="G52" s="18">
+        <v>2</v>
+      </c>
+      <c r="H52" s="19">
+        <v>44436</v>
+      </c>
+      <c r="I52" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
-        <v>2</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="24">
-        <v>2</v>
-      </c>
-      <c r="E52" s="24">
-        <v>2</v>
-      </c>
-      <c r="F52" s="24">
-        <v>2</v>
-      </c>
-      <c r="G52" s="24">
-        <v>2</v>
-      </c>
-      <c r="H52" s="25" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>3</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="18">
+        <v>3</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2</v>
+      </c>
+      <c r="F53" s="18">
+        <v>3</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1</v>
+      </c>
+      <c r="H53" s="19">
+        <v>44437</v>
+      </c>
+      <c r="I53" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I52" s="24" t="s">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="18">
+        <v>4</v>
+      </c>
+      <c r="E54" s="18">
+        <v>2</v>
+      </c>
+      <c r="F54" s="18">
+        <v>2</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="19">
+        <v>44443</v>
+      </c>
+      <c r="I54" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
-        <v>3</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="24">
-        <v>3</v>
-      </c>
-      <c r="E53" s="24">
-        <v>2</v>
-      </c>
-      <c r="F53" s="24">
-        <v>3</v>
-      </c>
-      <c r="G53" s="24">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="18">
+        <v>5</v>
+      </c>
+      <c r="E55" s="18">
         <v>1</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="F55" s="18">
+        <v>4</v>
+      </c>
+      <c r="G55" s="18">
+        <v>2</v>
+      </c>
+      <c r="H55" s="19">
+        <v>44431</v>
+      </c>
+      <c r="I55" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I53" s="24" t="s">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="18">
+        <v>6</v>
+      </c>
+      <c r="E56" s="18">
+        <v>3</v>
+      </c>
+      <c r="F56" s="18">
+        <v>7</v>
+      </c>
+      <c r="G56" s="18">
+        <v>3</v>
+      </c>
+      <c r="H56" s="19">
+        <v>44438</v>
+      </c>
+      <c r="I56" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="24">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="18">
+        <v>7</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18">
         <v>4</v>
       </c>
-      <c r="E54" s="24">
-        <v>2</v>
-      </c>
-      <c r="F54" s="24">
-        <v>2</v>
-      </c>
-      <c r="G54" s="24">
-        <v>1</v>
-      </c>
-      <c r="H54" s="25">
-        <v>44412</v>
-      </c>
-      <c r="I54" s="24" t="s">
+      <c r="G57" s="18">
+        <v>3</v>
+      </c>
+      <c r="H57" s="19">
+        <v>44443</v>
+      </c>
+      <c r="I57" s="18" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="24">
-        <v>5</v>
-      </c>
-      <c r="E55" s="24">
-        <v>1</v>
-      </c>
-      <c r="F55" s="24">
-        <v>4</v>
-      </c>
-      <c r="G55" s="24">
-        <v>2</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="24">
-        <v>6</v>
-      </c>
-      <c r="E56" s="24">
-        <v>3</v>
-      </c>
-      <c r="F56" s="24">
-        <v>7</v>
-      </c>
-      <c r="G56" s="24">
-        <v>3</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="24">
-        <v>7</v>
-      </c>
-      <c r="E57" s="24">
-        <v>1</v>
-      </c>
-      <c r="F57" s="24">
-        <v>4</v>
-      </c>
-      <c r="G57" s="24">
-        <v>3</v>
-      </c>
-      <c r="H57" s="25">
-        <v>44351</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1 BD/Modelagens/SP_Medical_Group-Fisico.xlsx
+++ b/Sprint 1 BD/Modelagens/SP_Medical_Group-Fisico.xlsx
@@ -400,7 +400,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="166" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -568,9 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,6 +618,7 @@
     <xf numFmtId="165" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -944,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,13 +1008,13 @@
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1049,290 +1047,290 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="9">
-        <v>3</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>4</v>
       </c>
-      <c r="F13" s="9">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>5</v>
       </c>
-      <c r="F14" s="9">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="9">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>7</v>
       </c>
-      <c r="F16" s="9">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>8</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>8</v>
       </c>
-      <c r="F17" s="9">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="8">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>9</v>
       </c>
-      <c r="F18" s="9">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>10</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>10</v>
       </c>
-      <c r="F19" s="9">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>11</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>11</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>12</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>13</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>14</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>15</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>16</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>17</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1347,82 +1345,82 @@
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>1</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>1</v>
       </c>
-      <c r="C32" s="13">
-        <v>2</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="12">
+        <v>2</v>
+      </c>
+      <c r="D32" s="12">
         <v>1</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>2</v>
-      </c>
-      <c r="B33" s="13">
-        <v>2</v>
-      </c>
-      <c r="C33" s="13">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12">
         <v>17</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>1</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>3</v>
-      </c>
-      <c r="B34" s="13">
-        <v>3</v>
-      </c>
-      <c r="C34" s="13">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="12">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12">
         <v>16</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1439,209 +1437,209 @@
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>1</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>4</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>30592</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <v>94839859000</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
-        <v>2</v>
-      </c>
-      <c r="B41" s="22">
+      <c r="A41" s="21">
+        <v>2</v>
+      </c>
+      <c r="B41" s="21">
         <v>5</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>37075</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="21">
         <v>73556944057</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>3</v>
-      </c>
-      <c r="B42" s="22">
+      <c r="A42" s="21">
+        <v>3</v>
+      </c>
+      <c r="B42" s="21">
         <v>6</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>28773</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="21">
         <v>16839338002</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="21">
         <v>4</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>7</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>31333</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <v>14332654765</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="21">
         <v>5</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>8</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>27633</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="21">
         <v>91305348010</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="A45" s="21">
         <v>6</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="21">
         <v>9</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="22">
         <v>26379</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="21">
         <v>79799299004</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="A46" s="21">
         <v>7</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>10</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="22">
         <v>43164</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="21">
         <v>13771913039</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22" t="s">
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1660,186 +1658,186 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>1</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17">
+        <v>3</v>
+      </c>
+      <c r="F51" s="17">
+        <v>7</v>
+      </c>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18">
+        <v>44453</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>2</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="17">
+        <v>2</v>
+      </c>
+      <c r="E52" s="17">
+        <v>2</v>
+      </c>
+      <c r="F52" s="17">
+        <v>2</v>
+      </c>
+      <c r="G52" s="17">
+        <v>2</v>
+      </c>
+      <c r="H52" s="18">
+        <v>44436</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>3</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="17">
+        <v>3</v>
+      </c>
+      <c r="E53" s="17">
+        <v>2</v>
+      </c>
+      <c r="F53" s="17">
+        <v>3</v>
+      </c>
+      <c r="G53" s="17">
         <v>1</v>
       </c>
-      <c r="E51" s="18">
-        <v>3</v>
-      </c>
-      <c r="F51" s="18">
+      <c r="H53" s="18">
+        <v>44437</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="17">
+        <v>4</v>
+      </c>
+      <c r="E54" s="17">
+        <v>2</v>
+      </c>
+      <c r="F54" s="17">
+        <v>2</v>
+      </c>
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>44443</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="17">
+        <v>5</v>
+      </c>
+      <c r="E55" s="17">
+        <v>1</v>
+      </c>
+      <c r="F55" s="17">
+        <v>4</v>
+      </c>
+      <c r="G55" s="17">
+        <v>2</v>
+      </c>
+      <c r="H55" s="18">
+        <v>44431</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="17">
+        <v>6</v>
+      </c>
+      <c r="E56" s="17">
+        <v>3</v>
+      </c>
+      <c r="F56" s="17">
         <v>7</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G56" s="17">
+        <v>3</v>
+      </c>
+      <c r="H56" s="18">
+        <v>44438</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="17">
+        <v>7</v>
+      </c>
+      <c r="E57" s="17">
         <v>1</v>
       </c>
-      <c r="H51" s="19">
-        <v>44453</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
-        <v>2</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="18">
-        <v>2</v>
-      </c>
-      <c r="E52" s="18">
-        <v>2</v>
-      </c>
-      <c r="F52" s="18">
-        <v>2</v>
-      </c>
-      <c r="G52" s="18">
-        <v>2</v>
-      </c>
-      <c r="H52" s="19">
-        <v>44436</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
-        <v>3</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="18">
-        <v>3</v>
-      </c>
-      <c r="E53" s="18">
-        <v>2</v>
-      </c>
-      <c r="F53" s="18">
-        <v>3</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1</v>
-      </c>
-      <c r="H53" s="19">
-        <v>44437</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="18">
+      <c r="F57" s="17">
         <v>4</v>
       </c>
-      <c r="E54" s="18">
-        <v>2</v>
-      </c>
-      <c r="F54" s="18">
-        <v>2</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1</v>
-      </c>
-      <c r="H54" s="19">
+      <c r="G57" s="17">
+        <v>3</v>
+      </c>
+      <c r="H57" s="18">
         <v>44443</v>
       </c>
-      <c r="I54" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="18">
-        <v>5</v>
-      </c>
-      <c r="E55" s="18">
-        <v>1</v>
-      </c>
-      <c r="F55" s="18">
-        <v>4</v>
-      </c>
-      <c r="G55" s="18">
-        <v>2</v>
-      </c>
-      <c r="H55" s="19">
-        <v>44431</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="18">
-        <v>6</v>
-      </c>
-      <c r="E56" s="18">
-        <v>3</v>
-      </c>
-      <c r="F56" s="18">
-        <v>7</v>
-      </c>
-      <c r="G56" s="18">
-        <v>3</v>
-      </c>
-      <c r="H56" s="19">
-        <v>44438</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="18">
-        <v>7</v>
-      </c>
-      <c r="E57" s="18">
-        <v>1</v>
-      </c>
-      <c r="F57" s="18">
-        <v>4</v>
-      </c>
-      <c r="G57" s="18">
-        <v>3</v>
-      </c>
-      <c r="H57" s="19">
-        <v>44443</v>
-      </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="17" t="s">
         <v>122</v>
       </c>
     </row>
